--- a/documents/Resource Requirements2/任务及奖励界面美术需求11-21-1404.xlsx
+++ b/documents/Resource Requirements2/任务及奖励界面美术需求11-21-1404.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210"/>
+    <workbookView xWindow="600" yWindow="15" windowWidth="18135" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档更新信息" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,8 +219,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>修改人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.更新效果图
-2.更改物品奖励布局</t>
+2.更改物品奖励布局
+3.难度按钮规格修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65*50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -334,20 +339,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,15 +436,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>182843</xdr:colOff>
+      <xdr:colOff>97118</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3148551</xdr:colOff>
+      <xdr:colOff>3502966</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2752725</xdr:rowOff>
+      <xdr:rowOff>3171825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,8 +462,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4069043" y="742950"/>
-          <a:ext cx="2965708" cy="2695575"/>
+          <a:off x="4145243" y="762000"/>
+          <a:ext cx="3405848" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,53 +576,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8953500" y="257175"/>
-          <a:ext cx="4876800" cy="5353050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -637,7 +595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -684,7 +642,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -694,6 +652,53 @@
         <a:xfrm>
           <a:off x="9610725" y="8562975"/>
           <a:ext cx="2933700" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9639300" y="209550"/>
+          <a:ext cx="6105525" cy="6486525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F10:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1020,74 +1025,74 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="6:9">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="7" t="s">
+    </row>
+    <row r="12" spans="6:9" ht="40.5">
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" ht="27">
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>41599</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="6:9">
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="6:9">
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="6:9">
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="6:9">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="6:9">
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="6:9">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1103,9 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1139,17 +1144,17 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="27">
       <c r="A2">
@@ -1210,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
@@ -1227,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>20</v>
@@ -1244,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
